--- a/QA/testcases/LLS/Pharmacy/009_L_Prov_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/LLS/Pharmacy/009_L_Prov_Patient_App_Create_Provider.xlsx
@@ -59,7 +59,7 @@
     <t>Reference Step</t>
   </si>
   <si>
-    <t>LLSProviderLogin</t>
+    <t>LLSPharmacyLogin</t>
   </si>
   <si>
     <t>Launch URL and login as Pharmacy</t>
@@ -1121,9 +1121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1163,9 +1163,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,24 +1192,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1215,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1224,45 +1223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,8 +1245,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,7 +1299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,6 +1332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1344,91 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,7 +1446,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,13 +1488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,12 +1512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1568,6 +1568,17 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
@@ -1576,12 +1587,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1606,31 +1630,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,7 +1687,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1694,134 +1705,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1831,7 +1842,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1840,10 +1851,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2303,8 +2315,8 @@
   <sheetPr/>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3062,7 +3074,7 @@
       <c r="G35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11">
@@ -3108,7 +3120,7 @@
       <c r="G37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8">
@@ -3156,7 +3168,7 @@
       <c r="G39" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8">
@@ -3196,7 +3208,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11">
@@ -3238,7 +3250,7 @@
       <c r="G43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
@@ -3278,7 +3290,7 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
@@ -3316,7 +3328,7 @@
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11">
@@ -3360,7 +3372,7 @@
       <c r="G49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
@@ -3408,7 +3420,7 @@
       <c r="G51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="8">
@@ -3450,7 +3462,7 @@
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="11">
@@ -3488,7 +3500,7 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8">
@@ -3528,7 +3540,7 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8">
@@ -3570,7 +3582,7 @@
       <c r="G59" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="11">
@@ -3616,7 +3628,7 @@
       <c r="G61" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8">
@@ -3658,7 +3670,7 @@
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8">
@@ -3694,7 +3706,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11">
@@ -3734,7 +3746,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8">
@@ -3774,7 +3786,7 @@
       <c r="G69" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8">
@@ -3816,7 +3828,7 @@
       <c r="G71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="11">
@@ -3828,7 +3840,7 @@
       <c r="C72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E72" s="10"/>
@@ -3906,7 +3918,7 @@
       <c r="C76" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E76" s="12"/>
@@ -3926,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="12"/>
-      <c r="D77" s="18"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="12">
         <v>2</v>
       </c>
@@ -3990,7 +4002,7 @@
       <c r="C80" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="20" t="s">
         <v>176</v>
       </c>
       <c r="E80" s="12"/>
@@ -4054,7 +4066,7 @@
       <c r="C83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="19" t="s">
         <v>181</v>
       </c>
       <c r="E83" s="10"/>
@@ -4088,7 +4100,7 @@
       <c r="C85" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="20" t="s">
         <v>182</v>
       </c>
       <c r="E85" s="10"/>
@@ -4110,7 +4122,7 @@
       <c r="C86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E86" s="10"/>
@@ -4132,7 +4144,7 @@
       <c r="C87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E87" s="10"/>
@@ -4154,7 +4166,7 @@
       <c r="C88" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="20" t="s">
         <v>186</v>
       </c>
       <c r="E88" s="10"/>
@@ -4176,7 +4188,7 @@
       <c r="C89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="10"/>
@@ -4198,7 +4210,7 @@
       <c r="C90" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E90" s="10"/>
@@ -4220,7 +4232,7 @@
       <c r="C91" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="20" t="s">
         <v>191</v>
       </c>
       <c r="E91" s="10"/>
@@ -4242,7 +4254,7 @@
       <c r="C92" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E92" s="10"/>
@@ -4264,7 +4276,7 @@
       <c r="C93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="19" t="s">
         <v>195</v>
       </c>
       <c r="E93" s="10" t="s">
@@ -4288,7 +4300,7 @@
       <c r="C94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E94" s="10" t="s">
@@ -4312,7 +4324,7 @@
       <c r="C95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="20" t="s">
         <v>202</v>
       </c>
       <c r="E95" s="10"/>
@@ -4330,10 +4342,10 @@
       <c r="C96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="21" t="s">
         <v>204</v>
       </c>
       <c r="F96" s="10"/>
@@ -4350,7 +4362,7 @@
       <c r="C97" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="20" t="s">
         <v>205</v>
       </c>
       <c r="E97" s="10" t="s">
@@ -4370,7 +4382,7 @@
       <c r="C98" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E98" s="10">
@@ -4390,7 +4402,7 @@
       <c r="C99" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="20" t="s">
         <v>207</v>
       </c>
       <c r="E99" s="10">
@@ -4410,7 +4422,7 @@
       <c r="C100" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="20" t="s">
         <v>208</v>
       </c>
       <c r="E100" s="10">
@@ -4430,7 +4442,7 @@
       <c r="C101" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="20" t="s">
         <v>209</v>
       </c>
       <c r="E101" s="10">
@@ -4450,7 +4462,7 @@
       <c r="C102" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E102" s="10" t="s">
@@ -4470,7 +4482,7 @@
       <c r="C103" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="20" t="s">
         <v>212</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -4490,7 +4502,7 @@
       <c r="C104" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="20" t="s">
         <v>214</v>
       </c>
       <c r="E104" s="10" t="s">
@@ -4510,7 +4522,7 @@
       <c r="C105" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="20" t="s">
         <v>215</v>
       </c>
       <c r="E105" s="10"/>
@@ -4572,7 +4584,7 @@
       <c r="G108" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H108" s="9"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8">
@@ -4616,7 +4628,7 @@
       <c r="G110" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H110" s="9"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
@@ -4650,7 +4662,7 @@
       <c r="G112" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H112" s="9"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8">
@@ -4694,7 +4706,7 @@
       <c r="G114" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H114" s="9"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8">
@@ -4730,7 +4742,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
@@ -4770,7 +4782,7 @@
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="9"/>
+      <c r="H118" s="18"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="8">
@@ -4812,7 +4824,7 @@
       <c r="G120" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H120" s="9"/>
+      <c r="H120" s="18"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="8">
@@ -4858,7 +4870,7 @@
       <c r="G122" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H122" s="9"/>
+      <c r="H122" s="18"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="11">
@@ -4900,7 +4912,7 @@
       <c r="G124" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="H124" s="9"/>
+      <c r="H124" s="18"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8">
@@ -4926,7 +4938,7 @@
       <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="18" t="s">
         <v>246</v>
       </c>
       <c r="C126" s="10" t="s">
@@ -4942,7 +4954,7 @@
       <c r="G126" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H126" s="9"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
@@ -4964,25 +4976,25 @@
       <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="H128" s="9"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
@@ -5020,7 +5032,7 @@
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="18"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
@@ -5058,7 +5070,7 @@
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="9"/>
+      <c r="H132" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="10">
